--- a/rrd/AppData/CaseAllocation.xlsx
+++ b/rrd/AppData/CaseAllocation.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD52CE-42F7-4C74-86F8-FCFCE2ECBE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D126DD8-AF1A-41D7-94EA-B4ACAB7F9141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CaseAllocation_config1" sheetId="1" r:id="rId1"/>
-    <sheet name="CaseAllocation_config2" sheetId="2" r:id="rId2"/>
-    <sheet name="CaseAllocation_config3" sheetId="3" r:id="rId3"/>
-    <sheet name="PreRBACaseAllocation" sheetId="18" r:id="rId4"/>
-    <sheet name="CaseAllocation_config4" sheetId="4" r:id="rId5"/>
-    <sheet name="CaseAllocation_config5" sheetId="5" r:id="rId6"/>
-    <sheet name="CaseAllocation_config6" sheetId="6" r:id="rId7"/>
-    <sheet name="PreRbaCaseAllocation7" sheetId="19" r:id="rId8"/>
-    <sheet name="CaseAllocation_config7" sheetId="7" r:id="rId9"/>
-    <sheet name="PreRbaCaseAllocation8" sheetId="20" r:id="rId10"/>
-    <sheet name="CaseAllocation_config8" sheetId="8" r:id="rId11"/>
-    <sheet name="CaseAllocation_config9" sheetId="9" r:id="rId12"/>
-    <sheet name="CaseAllocation_config10" sheetId="10" r:id="rId13"/>
-    <sheet name="CaseAllocation_config11" sheetId="11" r:id="rId14"/>
-    <sheet name="CaseAllocation_config12" sheetId="12" r:id="rId15"/>
-    <sheet name="CaseAllocation_config13" sheetId="13" r:id="rId16"/>
-    <sheet name="CaseAllocation_config14" sheetId="14" r:id="rId17"/>
-    <sheet name="CaseAllocation_config15" sheetId="15" r:id="rId18"/>
-    <sheet name="CaseAllocation_config16" sheetId="16" r:id="rId19"/>
-    <sheet name="CaseAllocation_config17" sheetId="17" r:id="rId20"/>
-    <sheet name="DemoCase" sheetId="21" r:id="rId21"/>
-    <sheet name="AllocatedistributeDemo" sheetId="23" r:id="rId22"/>
-    <sheet name="DemoCase1" sheetId="22" r:id="rId23"/>
+    <sheet name="CaseAllocation_config1_1" sheetId="24" r:id="rId1"/>
+    <sheet name="CaseAllocation_config1_2" sheetId="25" r:id="rId2"/>
+    <sheet name="CaseAllocation_config2_1" sheetId="27" r:id="rId3"/>
+    <sheet name="CaseAllocation_config2_2" sheetId="26" r:id="rId4"/>
+    <sheet name="CaseAllocation_config3_1" sheetId="28" r:id="rId5"/>
+    <sheet name="CaseAllocation_config3_2" sheetId="29" r:id="rId6"/>
+    <sheet name="PreRBACaseAllocation1_1" sheetId="30" r:id="rId7"/>
+    <sheet name="PreRBACaseAllocation1_2" sheetId="31" r:id="rId8"/>
+    <sheet name="CaseAllocation_config4_1" sheetId="32" r:id="rId9"/>
+    <sheet name="CaseAllocation_config4_2" sheetId="33" r:id="rId10"/>
+    <sheet name="CaseAllocation_config5" sheetId="5" r:id="rId11"/>
+    <sheet name="CaseAllocation_config6" sheetId="6" r:id="rId12"/>
+    <sheet name="PreRbaCaseAllocation7" sheetId="19" r:id="rId13"/>
+    <sheet name="CaseAllocation_config7" sheetId="7" r:id="rId14"/>
+    <sheet name="PreRbaCaseAllocation8" sheetId="20" r:id="rId15"/>
+    <sheet name="CaseAllocation_config8" sheetId="8" r:id="rId16"/>
+    <sheet name="CaseAllocation_config9" sheetId="9" r:id="rId17"/>
+    <sheet name="CaseAllocation_config10" sheetId="10" r:id="rId18"/>
+    <sheet name="CaseAllocation_config11" sheetId="11" r:id="rId19"/>
+    <sheet name="CaseAllocation_config12" sheetId="12" r:id="rId20"/>
+    <sheet name="CaseAllocation_config13" sheetId="13" r:id="rId21"/>
+    <sheet name="CaseAllocation_config14" sheetId="14" r:id="rId22"/>
+    <sheet name="CaseAllocation_config15" sheetId="15" r:id="rId23"/>
+    <sheet name="CaseAllocation_config16" sheetId="16" r:id="rId24"/>
+    <sheet name="CaseAllocation_config17" sheetId="17" r:id="rId25"/>
+    <sheet name="DemoCase" sheetId="21" r:id="rId26"/>
+    <sheet name="AllocatedistributeDemo" sheetId="23" r:id="rId27"/>
+    <sheet name="DemoCase1" sheetId="22" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="230">
   <si>
     <t xml:space="preserve"> Status</t>
   </si>
@@ -731,6 +736,12 @@
   </si>
   <si>
     <t>00001297</t>
+  </si>
+  <si>
+    <t>00001253</t>
+  </si>
+  <si>
+    <t>00001268</t>
   </si>
 </sst>
 </file>
@@ -738,7 +749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,16 +798,45 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -826,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -839,7 +879,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -847,6 +886,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,184 +1184,962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC41195-B20E-49E1-93CB-54D641E9887C}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="21.6640625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="O2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{B7C0E961-408D-4AE6-9339-9ABE12256FC7}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C248C050-573F-4414-AFE8-0E8EB63D1AC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987ADBAA-8AEB-4180-B4E7-2D27E60E620C}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{5F4DB623-747B-4DBE-B5CC-E93C99453D02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65995A-9C00-4D5B-8374-B6551AD156AA}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" t="s" s="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D3ED309D-1B84-4FEE-A31E-AE4E73C5D7C9}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D696AF11-4AC0-4698-BC45-DB1253CE9D8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C41BA3D-7D86-4A39-B829-7D3A5258394A}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{84970ABA-6DE6-4021-A1B2-B9163282E384}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{F8EE3FF7-1275-4EF5-B35E-7654B134E9DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12BFABF-E25E-4543-AA40-2BD7315DAB44}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{73EDDB23-76FA-4C19-8D25-F940381D68D8}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D459B4EF-7349-4E82-B7E6-6C1D926993EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D882FEC-6735-4E18-AB73-F1856F2A93B8}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{63A98249-CE7F-4509-9629-0BA027B148CC}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{8C431BFE-F05A-4CB1-B6B1-EDF04A07F524}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB99A02-4976-47E0-8443-2C26A97338B7}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -1313,20 +2147,20 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +2244,7 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N2" t="s">
@@ -1420,7 +2254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1448,22 +2282,22 @@
       <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1476,7 +2310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B7233-FE6D-4D2F-98FE-97B1DE591018}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -1484,19 +2318,19 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.00390625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +2377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1580,17 +2414,17 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>43</v>
+      <c r="M2" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1627,13 +2461,13 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>43</v>
+      <c r="M3" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="N3" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1646,30 +2480,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FD8E0-3822-4DAD-BA7D-12FF08028B70}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="28.140625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1721,8 +2556,11 @@
       <c r="Q1" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s" s="31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1771,11 +2609,14 @@
       <c r="P2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1821,10 +2662,10 @@
       <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1838,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A5526F-A1B9-4EFD-A89D-308BBD225E93}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1846,22 +2687,22 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="31.5703125" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="18.0" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +2752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD13C4BE-BB71-4A93-9094-53209F458480}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -1977,20 +2818,20 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2084,7 +2925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2121,13 +2962,13 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2140,7 +2981,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866C53B-C1E6-4BB7-B4CA-21248972B909}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C248C050-573F-4414-AFE8-0E8EB63D1AC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4D6755-7733-4A3B-963B-0C0EED66B088}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2148,19 +3099,19 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +3158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +3205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2310,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FD5B99-E587-433F-AE33-FA571F01140A}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2318,20 +3269,20 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +3329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +3376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2481,7 +3432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02974618-3A4F-4474-A674-1B012640D304}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2489,21 +3440,21 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" customWidth="true" width="22.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +3501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +3548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2634,7 +3585,7 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
@@ -2653,7 +3604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84313C8F-12D4-4FF2-8432-B3FF6AB62098}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -2661,20 +3612,20 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +3672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2768,7 +3719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2815,7 +3766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2862,7 +3813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +3860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2968,7 +3919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E7EAA-005B-483E-8A34-5CE68991937D}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2976,22 +3927,22 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3085,7 +4036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +4083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3190,206 +4141,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA34667E-FF55-4147-946D-470443841D6F}">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="29.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{97ECED42-F0A4-40D7-B102-AF5F0CD04063}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{6300EE9D-1F16-4283-8963-F092F6C75CA4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FECDA-E4E8-4EE5-8AD2-F1FF87F62289}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="19" max="19" width="7.796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3441,9 +4216,12 @@
       <c r="Q1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R1" s="12"/>
+      <c r="S1" t="s" s="32">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3492,15 +4270,18 @@
       <c r="P2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
@@ -3545,7 +4326,7 @@
       <c r="P3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3558,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA348B7-154F-442C-AD50-8BFD651AA65A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
@@ -3566,20 +4347,20 @@
       <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3611,17 +4392,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -3630,1619 +4411,1619 @@
       <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>180</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="J2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="J3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>182</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="J5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>184</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>186</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>187</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="J9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>188</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>189</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>190</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="J12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>191</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="J13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>192</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="J14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>193</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="J15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>194</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="J16" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>195</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="J17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>196</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="J18" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="J19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="J20" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>199</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="J21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>200</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>201</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="J23" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>202</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="J24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>203</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="J25" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>204</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="J26" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>205</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="J27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="J28" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="J29" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="J30" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="J31" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="J32" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="J33" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="J34" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="J35" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="J36" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="J37" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="J38" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="J39" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="J40" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="J41" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="J42" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="J43" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="J44" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="B45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="J45" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="J46" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="15" t="s">
+      <c r="B47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="J47" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="B48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="15" t="s">
+      <c r="D48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="J48" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="B49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="J49" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="J50" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="D51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I52" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B58F61-C780-4DDE-9655-789E8E3DBBE1}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5273,704 +6054,704 @@
       <c r="J1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K1" t="s" s="18">
+      <c r="K1" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>200</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>204</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>205</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K21" t="s">
@@ -5982,7 +6763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799CEE2-FE85-4732-8433-934FE0D494AA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -5990,21 +6771,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6035,133 +6815,133 @@
       <c r="J1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="J2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="J3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6171,32 +6951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBE278-263E-4305-A7E4-2CB2D2D0E803}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CDE47D-9C9F-40AE-9BA0-703035BD4FE6}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6243,133 +7007,72 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C44DB3B9-570F-4BB7-A68B-6F47D797D992}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{387B33DD-8006-4EAC-B2EE-8DA7E24D6F67}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{97ECED42-F0A4-40D7-B102-AF5F0CD04063}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4084B3D2-2889-45F5-A577-56089C45E3DA}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6630524A-6337-4A7F-AD8F-D790DAA35A38}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.0" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6416,138 +7119,72 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>162</v>
+      <c r="M2" t="s">
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{753A84B1-194D-4947-BC32-345CBC17B895}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{B27D04A5-7455-4F92-A26B-E258C5DB458B}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{6300EE9D-1F16-4283-8963-F092F6C75CA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD2C3-A541-4D75-98B7-20B8D1A343BE}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1F741-A6A2-4D14-950E-4B8E16382649}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.6640625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6594,12 +7231,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -6608,22 +7245,22 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -6631,102 +7268,35 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>162</v>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{F6673BA3-E596-4A14-840E-D4C299CBB08F}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{5F4DB623-747B-4DBE-B5CC-E93C99453D02}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C44DB3B9-570F-4BB7-A68B-6F47D797D992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65995A-9C00-4D5B-8374-B6551AD156AA}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CB9CA-1F84-4C1B-BBC3-B8F22C14F497}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6766,649 +7336,395 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>61</v>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{D3ED309D-1B84-4FEE-A31E-AE4E73C5D7C9}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{D696AF11-4AC0-4698-BC45-DB1253CE9D8F}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{387B33DD-8006-4EAC-B2EE-8DA7E24D6F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C41BA3D-7D86-4A39-B829-7D3A5258394A}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7D155-AD21-4E20-9788-17EB848400D6}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.44140625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="N3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>51</v>
+      <c r="M2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{84970ABA-6DE6-4021-A1B2-B9163282E384}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{F8EE3FF7-1275-4EF5-B35E-7654B134E9DB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{753A84B1-194D-4947-BC32-345CBC17B895}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12BFABF-E25E-4543-AA40-2BD7315DAB44}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5597A11C-E5A9-40AD-ABF1-A821CF690563}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="23.109375" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{73EDDB23-76FA-4C19-8D25-F940381D68D8}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{D459B4EF-7349-4E82-B7E6-6C1D926993EB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{B27D04A5-7455-4F92-A26B-E258C5DB458B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D882FEC-6735-4E18-AB73-F1856F2A93B8}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32293BDB-3C09-495E-846C-63BE6D3D4225}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.44140625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>44</v>
+      <c r="M2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{63A98249-CE7F-4509-9629-0BA027B148CC}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{8C431BFE-F05A-4CB1-B6B1-EDF04A07F524}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F6673BA3-E596-4A14-840E-D4C299CBB08F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rrd/AppData/CaseAllocation.xlsx
+++ b/rrd/AppData/CaseAllocation.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="240">
   <si>
     <t xml:space="preserve"> Status</t>
   </si>
@@ -742,6 +742,36 @@
   </si>
   <si>
     <t>00001268</t>
+  </si>
+  <si>
+    <t>00001299</t>
+  </si>
+  <si>
+    <t>00001313</t>
+  </si>
+  <si>
+    <t>00001314</t>
+  </si>
+  <si>
+    <t>00001315</t>
+  </si>
+  <si>
+    <t>00001325</t>
+  </si>
+  <si>
+    <t>00001326</t>
+  </si>
+  <si>
+    <t>00001327</t>
+  </si>
+  <si>
+    <t>00001345</t>
+  </si>
+  <si>
+    <t>00001346</t>
+  </si>
+  <si>
+    <t>00001347</t>
   </si>
 </sst>
 </file>
@@ -866,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -901,6 +931,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1407,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65995A-9C00-4D5B-8374-B6551AD156AA}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -1434,6 +1477,9 @@
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1495,10 +1541,16 @@
       <c r="T1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" t="s" s="30">
         <v>207</v>
       </c>
-      <c r="V1" t="s" s="30">
+      <c r="W1" t="s" s="33">
+        <v>207</v>
+      </c>
+      <c r="X1" t="s" s="34">
+        <v>207</v>
+      </c>
+      <c r="Y1" t="s" s="35">
         <v>207</v>
       </c>
     </row>
@@ -1557,6 +1609,15 @@
       <c r="V2" t="s">
         <v>228</v>
       </c>
+      <c r="W2" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1609,6 +1670,9 @@
       </c>
       <c r="Q3" s="27" t="s">
         <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>119</v>
@@ -2462,7 +2526,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>119</v>
@@ -2482,7 +2546,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FD8E0-3822-4DAD-BA7D-12FF08028B70}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2502,6 +2566,8 @@
     <col min="16" max="16" customWidth="true" width="28.140625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="28.0" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2559,6 +2625,12 @@
       <c r="R1" t="s" s="31">
         <v>207</v>
       </c>
+      <c r="S1" t="s" s="40">
+        <v>207</v>
+      </c>
+      <c r="T1" t="s" s="41">
+        <v>207</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2615,6 +2687,12 @@
       <c r="R2" t="s">
         <v>229</v>
       </c>
+      <c r="S2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2667,6 +2745,9 @@
       </c>
       <c r="Q3" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4224,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FECDA-E4E8-4EE5-8AD2-F1FF87F62289}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
@@ -4161,7 +4242,9 @@
     <col min="15" max="15" customWidth="true" width="20.140625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="30.140625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="19" max="19" width="7.796875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -4220,6 +4303,9 @@
       <c r="S1" t="s" s="32">
         <v>207</v>
       </c>
+      <c r="T1" t="s" s="43">
+        <v>207</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4275,6 +4361,9 @@
       </c>
       <c r="S2" t="s">
         <v>218</v>
+      </c>
+      <c r="T2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
